--- a/excel_luke/2_Formulas_Functions/2_Functions_Intro.xlsx
+++ b/excel_luke/2_Formulas_Functions/2_Functions_Intro.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liu_michael/Documents/UWaterloo1/Data Analytics/excel_luke/2_Formulas_Functions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF50AE8-6F59-4DF5-B44C-2445C4C088D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD710BD-1484-1F4B-BD3C-689651326EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42890" yWindow="-19270" windowWidth="18350" windowHeight="10350" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20060" windowHeight="16460" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="9" r:id="rId1"/>
     <sheet name="Final" sheetId="7" r:id="rId2"/>
     <sheet name="Errors" sheetId="8" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -1001,35 +1000,34 @@
   <dimension ref="B1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.15625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.41796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26171875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.578125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="11" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.26171875" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.26171875" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.15625" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.41796875" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.15625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.83984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" style="1" customWidth="1"/>
+    <col min="14" max="15" width="0.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.83203125" style="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="1"/>
     <col min="18" max="18" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G1" s="28"/>
     </row>
-    <row r="2" spans="2:19" s="8" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:19" s="8" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1080,7 +1078,7 @@
       </c>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1133,7 +1131,10 @@
         <f>L3*M3=1</f>
         <v>1</v>
       </c>
-      <c r="P3" s="22"/>
+      <c r="P3" s="22" t="b">
+        <f>AND(L3,M3)</f>
+        <v>1</v>
+      </c>
       <c r="R3" s="10" t="s">
         <v>22</v>
       </c>
@@ -1141,7 +1142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1191,10 +1192,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="22" t="b">
-        <f t="shared" ref="O4:O12" si="9">L4*M4=1</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="22"/>
+        <f>L4*M4=1</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="22" t="b">
+        <f t="shared" ref="P4:P12" si="9">AND(L4,M4)</f>
+        <v>0</v>
+      </c>
       <c r="R4" s="12" t="s">
         <v>23</v>
       </c>
@@ -1202,7 +1206,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1252,12 +1256,15 @@
         <v>0</v>
       </c>
       <c r="O5" s="22" t="b">
+        <f>L5*M5=1</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="22" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P5" s="22"/>
-    </row>
-    <row r="6" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="6" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1307,12 +1314,15 @@
         <v>1</v>
       </c>
       <c r="O6" s="22" t="b">
+        <f t="shared" ref="O4:O12" si="10">L6*M6=1</f>
+        <v>1</v>
+      </c>
+      <c r="P6" s="22" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="P6" s="22"/>
-    </row>
-    <row r="7" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="7" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1362,12 +1372,15 @@
         <v>0</v>
       </c>
       <c r="O7" s="22" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="22" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P7" s="22"/>
-    </row>
-    <row r="8" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="8" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1417,12 +1430,15 @@
         <v>1</v>
       </c>
       <c r="O8" s="22" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P8" s="22" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="P8" s="22"/>
-    </row>
-    <row r="9" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="9" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1472,12 +1488,15 @@
         <v>1</v>
       </c>
       <c r="O9" s="22" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P9" s="22" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="P9" s="22"/>
-    </row>
-    <row r="10" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="10" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1527,12 +1546,15 @@
         <v>1</v>
       </c>
       <c r="O10" s="22" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P10" s="22" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="P10" s="22"/>
-    </row>
-    <row r="11" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="11" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1582,12 +1604,15 @@
         <v>0</v>
       </c>
       <c r="O11" s="22" t="b">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="22" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P11" s="22"/>
-    </row>
-    <row r="12" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="12" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
@@ -1637,49 +1662,91 @@
         <v>1</v>
       </c>
       <c r="O12" s="22" t="b">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P12" s="22" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="P12" s="22"/>
-    </row>
-    <row r="13" spans="2:19" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="13" spans="2:19" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B13" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="30"/>
-    </row>
-    <row r="14" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C13" s="19">
+        <f>AVERAGE(C3:C12)</f>
+        <v>5.3</v>
+      </c>
+      <c r="D13" s="19">
+        <f t="shared" ref="D13:E13" si="11">AVERAGE(D3:D12)</f>
+        <v>119000</v>
+      </c>
+      <c r="E13" s="19">
+        <f t="shared" si="11"/>
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="2:19" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="20">
+        <f>AVERAGE(C3:C12)</f>
+        <v>5.3</v>
+      </c>
+      <c r="D14" s="20">
+        <f t="shared" ref="D14:E14" si="12">AVERAGE(D3:D12)</f>
+        <v>119000</v>
+      </c>
+      <c r="E14" s="20">
+        <f t="shared" si="12"/>
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B15" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="30"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="19">
+        <f>COUNT(C3:C12)</f>
+        <v>10</v>
+      </c>
+      <c r="D15" s="19">
+        <f>COUNT(D3:D12)</f>
+        <v>10</v>
+      </c>
+      <c r="E15" s="19">
+        <f>COUNT(E3:E12)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="C16" s="18">
+        <f>COUNTIF($C$3:$C$12, "&lt;="&amp;$S$3)</f>
+        <v>6</v>
+      </c>
+      <c r="D16" s="18">
+        <f>COUNTIF($D$3:$D$12, "&gt;="&amp;$S$4)</f>
+        <v>9</v>
+      </c>
       <c r="E16" s="34"/>
     </row>
-    <row r="17" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
+      <c r="C17" s="18">
+        <f>COUNTIF($C$3:$C$12, "&lt;="&amp;$S$3)</f>
+        <v>6</v>
+      </c>
+      <c r="D17" s="18">
+        <f>COUNTIF($D$3:$D$12, "&gt;="&amp;$S$4)</f>
+        <v>9</v>
+      </c>
       <c r="E17" s="36"/>
     </row>
   </sheetData>
@@ -1695,32 +1762,32 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.15625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.41796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26171875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.578125" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="11" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.26171875" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.26171875" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.15625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.41796875" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.15625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.83984375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.83203125" style="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="1"/>
     <col min="18" max="18" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G1" s="28"/>
     </row>
-    <row r="2" spans="2:19" s="8" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:19" s="8" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1771,7 +1838,7 @@
       </c>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1835,7 +1902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1899,7 +1966,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1957,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -2015,7 +2082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -2073,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -2131,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -2189,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -2247,7 +2314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -2305,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
@@ -2363,7 +2430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:19" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B13" s="29" t="s">
         <v>27</v>
       </c>
@@ -2380,7 +2447,7 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="31" t="s">
         <v>28</v>
       </c>
@@ -2401,7 +2468,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:19" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B15" s="29" t="s">
         <v>30</v>
       </c>
@@ -2418,7 +2485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16" s="33" t="s">
         <v>31</v>
       </c>
@@ -2432,7 +2499,7 @@
       </c>
       <c r="E16" s="34"/>
     </row>
-    <row r="17" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>31</v>
       </c>
@@ -2459,15 +2526,15 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.1015625" customWidth="1"/>
-    <col min="2" max="2" width="13.41796875" customWidth="1"/>
-    <col min="3" max="3" width="31.41796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="37" t="s">
         <v>32</v>
       </c>
@@ -2478,7 +2545,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
@@ -2490,7 +2557,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="e">
         <f>A4 + "text"</f>
         <v>#VALUE!</v>
@@ -2502,7 +2569,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2514,7 +2581,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="e" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">COUNTT(A3:A9)</f>
         <v>#NAME?</v>
@@ -2526,7 +2593,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="38" t="e">
         <f>VLOOKUP("Value", A1:A10, 2, FALSE)</f>
         <v>#N/A</v>
@@ -2538,7 +2605,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="38" t="e">
         <f>SQRT(-1)</f>
         <v>#NUM!</v>
@@ -2550,7 +2617,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="38" t="e">
         <f>SUM(A1:A10 C1:C10)</f>
         <v>#NULL!</v>
